--- a/docs/sql_docs/物理设计.xlsx
+++ b/docs/sql_docs/物理设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\学习\信息安全\数据库\实验\实验3\DBSEC2023-Lab3\docs\sql_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2C33ED-9CB8-4256-8041-5B8D60D64993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B18580-AB42-4354-BF6A-D5A35A241223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shoppingHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shoppingCarts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +364,26 @@
   </si>
   <si>
     <t>哈希算法采用sha256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满分为5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppinghistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:K73"/>
+  <dimension ref="A5:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -801,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -916,7 +928,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
@@ -977,11 +989,9 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="1">
-        <v>255</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
@@ -993,7 +1003,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
@@ -1024,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1039,7 +1049,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1049,10 +1059,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -1064,11 +1074,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
@@ -1076,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1091,7 +1101,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1101,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -1114,10 +1124,12 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1134,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1240,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1346,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1452,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1548,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>16</v>
@@ -1563,11 +1575,11 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
@@ -1603,7 +1615,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1">
         <v>11</v>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1635,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -1709,11 +1721,9 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="1">
-        <v>255</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>17</v>
       </c>
@@ -1733,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
@@ -1748,7 +1758,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -1759,7 +1769,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1768,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -1842,11 +1852,9 @@
         <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="1">
-        <v>255</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -1879,11 +1887,11 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
@@ -1892,7 +1900,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -1901,7 +1909,7 @@
         <v>18</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -1975,11 +1983,9 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="1">
-        <v>255</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
         <v>17</v>
       </c>
@@ -1994,8 +2000,117 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
+    <row r="77" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:K77"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A5:B5"/>

--- a/docs/sql_docs/物理设计.xlsx
+++ b/docs/sql_docs/物理设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\学习\信息安全\数据库\实验\实验3\DBSEC2023-Lab3\docs\sql_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B18580-AB42-4354-BF6A-D5A35A241223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AECDA6-A4A6-478F-9D07-E2581BCFE2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,11 +379,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,6 +505,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:K80"/>
+  <dimension ref="A5:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1689,11 +1697,11 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="7">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -1708,17 +1716,17 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="7">
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
@@ -1729,24 +1737,24 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="7">
         <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
@@ -1754,127 +1762,125 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="59" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="1" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -1884,233 +1890,186 @@
         <v>17</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1" t="s">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="1" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="74" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1" t="s">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>2</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1" t="s">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="82" ht="14.5" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:K77"/>
+  <mergeCells count="24">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:K54"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A5:B5"/>
@@ -2124,17 +2083,6 @@
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:K70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
